--- a/BalanceSheet/NVAX_bal.xlsx
+++ b/BalanceSheet/NVAX_bal.xlsx
@@ -1776,19 +1776,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>102621000.0</v>
+        <v>54000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>33446000.0</v>
+        <v>15000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>35544000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-8450000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>5397000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>4210000.0</v>
